--- a/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
+++ b/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D498316-1A0C-44DB-810F-92B6D552684F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59932B9-4C84-4880-80D8-8A9AD3141CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1675,10 +1675,14 @@
       <c r="J11" s="3">
         <v>45457</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="3">
+        <v>45461</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>115</v>
@@ -3003,18 +3007,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3189,14 +3193,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3209,6 +3205,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
+++ b/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59932B9-4C84-4880-80D8-8A9AD3141CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A765E3-55B7-41B6-8349-F90CAB61772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,8 +1367,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1720,12 +1720,14 @@
       <c r="J12" s="3">
         <v>45461</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>45463</v>
+      </c>
       <c r="L12" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>119</v>
@@ -1760,12 +1762,14 @@
       <c r="J13" s="3">
         <v>45457</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>45463</v>
+      </c>
       <c r="L13" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>116</v>
@@ -3007,21 +3011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3192,7 +3181,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3209,29 +3232,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
+++ b/doc/内部設計/７03_ファイル構成一覧表_チーム名_完成var10618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A765E3-55B7-41B6-8349-F90CAB61772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86130159-4A3F-45CF-85E5-20160C4C5245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="125">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:O16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1511,7 +1511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1778,7 +1778,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1820,7 +1820,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1862,7 +1862,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2431,10 +2431,16 @@
       <c r="I29" s="3">
         <v>45464</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="3">
+        <v>45462</v>
+      </c>
+      <c r="K29" s="3">
+        <v>45463</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>120</v>
       </c>
@@ -2463,16 +2469,22 @@
       <c r="I30" s="3">
         <v>45464</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="3">
+        <v>45463</v>
+      </c>
+      <c r="K30" s="3">
+        <v>45463</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>118</v>
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2495,7 +2507,9 @@
       <c r="I31" s="3">
         <v>45464</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3">
+        <v>45463</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2504,7 +2518,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2527,7 +2541,9 @@
       <c r="I32" s="3">
         <v>45464</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>45463</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2559,10 +2575,14 @@
       <c r="I33" s="3">
         <v>45464</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3">
+        <v>45463</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>116</v>
       </c>
@@ -2592,12 +2612,12 @@
         <v>45464</v>
       </c>
       <c r="J34" s="3">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>117</v>
@@ -2629,10 +2649,16 @@
       <c r="I35" s="3">
         <v>45464</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="3">
+        <v>45463</v>
+      </c>
+      <c r="K35" s="3">
+        <v>45463</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>119</v>
       </c>
@@ -2662,12 +2688,12 @@
         <v>45464</v>
       </c>
       <c r="J36" s="3">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>115</v>
@@ -2693,7 +2719,9 @@
       <c r="G37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="5">
+        <v>45463</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2721,7 +2749,9 @@
       <c r="G38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="5">
+        <v>45463</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2749,12 +2779,18 @@
       <c r="G39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="5">
+        <v>45455</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45456</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>119</v>
       </c>
@@ -2777,14 +2813,20 @@
       <c r="G40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="5">
+        <v>45463</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45462</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="1"/>
     </row>
@@ -2805,14 +2847,20 @@
       <c r="G41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="5">
+        <v>45463</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45462</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="1"/>
     </row>
@@ -2833,7 +2881,9 @@
       <c r="G42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="5">
+        <v>45463</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2861,7 +2911,9 @@
       <c r="G43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="5">
+        <v>45463</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2889,7 +2941,9 @@
       <c r="G44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="5">
+        <v>45463</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2917,7 +2971,9 @@
       <c r="G45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="5">
+        <v>45463</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -2945,7 +3001,9 @@
       <c r="G46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="5">
+        <v>45463</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -2973,26 +3031,32 @@
       <c r="G47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="5">
+        <v>45463</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="7"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="H48" s="5"/>
       <c r="J48" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="C7:O47" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
     <filterColumn colId="2">
       <filters>
-        <filter val="servlet"/>
+        <filter val="WebContent/WEB-INF/jsp"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="3">
@@ -3182,18 +3246,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3216,6 +3280,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3230,12 +3302,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>